--- a/DATA_goal/Junction_Flooding_435.xlsx
+++ b/DATA_goal/Junction_Flooding_435.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T3" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="U3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.53</v>
+        <v>55.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_435.xlsx
+++ b/DATA_goal/Junction_Flooding_435.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45116.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45116.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.922</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.766</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.33</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.58</v>
+        <v>3.557</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>2.984</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.517</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.27</v>
+        <v>13.693</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.83</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.881</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.293</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.391</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.294</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.515</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>2.133</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.532</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.28</v>
+        <v>1.511</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.642</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.56</v>
+        <v>15.714</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.43</v>
+        <v>4.787</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.34</v>
+        <v>3.007</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.095</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.61</v>
+        <v>5.779</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.51</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>1.343</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.8</v>
+        <v>1.355</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.04</v>
+        <v>12.829</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.641</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.86</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45116.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.14</v>
+        <v>22.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.85</v>
+        <v>16.515</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.53</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.17</v>
+        <v>48.714</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.31</v>
+        <v>40.315</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.27</v>
+        <v>17.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.26</v>
+        <v>64.102</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.17</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.94</v>
+        <v>12.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.06</v>
+        <v>18.137</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.41</v>
+        <v>19.576</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.09</v>
+        <v>20.549</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.84</v>
+        <v>5.674</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.75</v>
+        <v>25.084</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.11</v>
+        <v>14.895</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.27</v>
+        <v>1.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.995</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.27</v>
+        <v>261.627</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.93</v>
+        <v>49.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.67</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.74</v>
+        <v>33.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.87</v>
+        <v>17.606</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.228</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.78</v>
+        <v>31.618</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.33</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.1</v>
+        <v>12.825</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.57</v>
+        <v>15.059</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.4</v>
+        <v>20.516</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>57.685</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>9.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.77</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45116.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.24</v>
+        <v>2.88</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>2.43</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.27</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.75</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>2.52</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.47</v>
-      </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.58</v>
+        <v>15.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_435.xlsx
+++ b/DATA_goal/Junction_Flooding_435.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45116.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.541</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.304</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.244</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.627</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.058</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.526</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.718</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.505</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.158</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.744</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.59</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.45</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.915</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.422</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.954</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.331</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.814</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.604</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.066</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.313</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.004</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.141</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.295</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.618</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.02</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.452</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.735</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.304</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.593</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.503</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45116.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.922</v>
+        <v>0.778</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.766</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.427</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.557</v>
+        <v>1.578</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.984</v>
+        <v>1.333</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.517</v>
+        <v>1.012</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.693</v>
+        <v>1.268</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.327</v>
+        <v>0.829</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.881</v>
+        <v>0.538</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.293</v>
+        <v>0.484</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.391</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.193</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.515</v>
+        <v>1.078</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.504</v>
+        <v>0.571</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.133</v>
+        <v>0.835</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.532</v>
+        <v>0.236</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.511</v>
+        <v>0.276</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.642</v>
+        <v>0.275</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.714</v>
+        <v>3.564</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.787</v>
+        <v>1.429</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.388</v>
+        <v>0.482</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.007</v>
+        <v>1.339</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.618</v>
+        <v>0.431</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.095</v>
+        <v>0.144</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.779</v>
+        <v>0.607</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.226</v>
+        <v>0.511</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.343</v>
+        <v>0.719</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.736</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.355</v>
+        <v>1.799</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.829</v>
+        <v>1.036</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.641</v>
+        <v>0.365</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.746</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45116.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.58</v>
+        <v>5.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.515</v>
+        <v>3.848</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.426</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.714</v>
+        <v>11.174</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.315</v>
+        <v>9.314</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.77</v>
+        <v>4.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.102</v>
+        <v>11.259</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.341</v>
+        <v>6.172</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.06</v>
+        <v>2.942</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.137</v>
+        <v>4.061</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.576</v>
+        <v>4.412</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.549</v>
+        <v>5.093</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.674</v>
+        <v>1.838</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.67</v>
+        <v>3.997</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.084</v>
+        <v>5.753</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.895</v>
+        <v>3.109</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.274</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.995</v>
+        <v>0.33</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>261.627</v>
+        <v>55.267</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.28</v>
+        <v>10.933</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.31</v>
+        <v>3.668</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>33.07</v>
+        <v>7.737</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.606</v>
+        <v>3.871</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.228</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.618</v>
+        <v>5.783</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.407</v>
+        <v>3.328</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.825</v>
+        <v>3.105</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.059</v>
+        <v>3.569</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.516</v>
+        <v>5.397</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.705</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.685</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.18</v>
+        <v>2.165</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.391</v>
+        <v>4.771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45116.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.88</v>
+        <v>3.244</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.83</v>
+        <v>2.427</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.294</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.97</v>
+        <v>7.076</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.96</v>
+        <v>5.942</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.709</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.21</v>
+        <v>10.339</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.49</v>
+        <v>3.901</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.974</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.17</v>
+        <v>2.539</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.772</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.43</v>
+        <v>3.267</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.221</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.26</v>
+        <v>2.518</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.741</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.223</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.235</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.12</v>
+        <v>32.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.78</v>
+        <v>7.147</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.312</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.47</v>
+        <v>5.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.4</v>
+        <v>2.478</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.358</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.14</v>
+        <v>5.141</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.84</v>
+        <v>2.122</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.77</v>
+        <v>2.007</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.293</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>9.576000000000001</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.379</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.038</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
         <v>2.52</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2.61</v>
+      <c r="AC6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_435.xlsx
+++ b/DATA_goal/Junction_Flooding_435.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45116.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45116.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.778</v>
+        <v>1.922</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.766</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.427</v>
+        <v>1.33</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.578</v>
+        <v>3.557</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.333</v>
+        <v>2.984</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.012</v>
+        <v>1.517</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.268</v>
+        <v>13.693</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.829</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.538</v>
+        <v>0.881</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.484</v>
+        <v>1.293</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.391</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.193</v>
+        <v>1.294</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.078</v>
+        <v>0.515</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.571</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.835</v>
+        <v>2.133</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.236</v>
+        <v>1.532</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.276</v>
+        <v>1.511</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.275</v>
+        <v>0.642</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.564</v>
+        <v>15.714</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.429</v>
+        <v>4.787</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.482</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.339</v>
+        <v>3.007</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.431</v>
+        <v>1.618</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.144</v>
+        <v>0.095</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.607</v>
+        <v>5.779</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.511</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.719</v>
+        <v>1.343</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.736</v>
+        <v>1.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.799</v>
+        <v>1.355</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.036</v>
+        <v>12.829</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.365</v>
+        <v>0.641</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.864</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45116.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.14</v>
+        <v>22.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.848</v>
+        <v>16.515</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.426</v>
+        <v>1.53</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.174</v>
+        <v>48.714</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.314</v>
+        <v>40.315</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.27</v>
+        <v>17.77</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.259</v>
+        <v>64.102</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.172</v>
+        <v>27.341</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.942</v>
+        <v>12.06</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.061</v>
+        <v>18.137</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.412</v>
+        <v>19.576</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.093</v>
+        <v>20.549</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.838</v>
+        <v>5.674</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.997</v>
+        <v>17.67</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.753</v>
+        <v>25.084</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.109</v>
+        <v>14.895</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.274</v>
+        <v>1.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.995</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.267</v>
+        <v>261.627</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.933</v>
+        <v>49.28</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.668</v>
+        <v>16.31</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.737</v>
+        <v>33.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.871</v>
+        <v>17.606</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5639999999999999</v>
+        <v>2.228</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.783</v>
+        <v>31.618</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.328</v>
+        <v>14.407</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.105</v>
+        <v>12.825</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.569</v>
+        <v>15.059</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.397</v>
+        <v>20.516</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.705</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.797000000000001</v>
+        <v>57.685</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.165</v>
+        <v>9.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.771</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45116.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.244</v>
+        <v>2.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.427</v>
+        <v>1.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.294</v>
+        <v>0.65</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.076</v>
+        <v>5.97</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.942</v>
+        <v>4.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.709</v>
+        <v>2.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.339</v>
+        <v>16.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.901</v>
+        <v>3.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.974</v>
+        <v>1.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.539</v>
+        <v>2.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.772</v>
+        <v>2.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.267</v>
+        <v>2.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.221</v>
+        <v>0.75</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.518</v>
+        <v>2.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.741</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.223</v>
+        <v>0.72</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.235</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>32.54</v>
+        <v>27.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.147</v>
+        <v>6.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.312</v>
+        <v>2.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.18</v>
+        <v>4.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.478</v>
+        <v>2.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.358</v>
+        <v>0.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.141</v>
+        <v>7.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.122</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.007</v>
+        <v>1.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.293</v>
+        <v>2.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.475</v>
+        <v>2.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.519</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.576000000000001</v>
+        <v>15.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.379</v>
+        <v>1.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.038</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
